--- a/Verifier.xlsx
+++ b/Verifier.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yichj\Desktop\school\Summer\Independent Research\Verifier\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAZER\Desktop\school\Occupation-Data-Revised\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3458308F-70BA-45FA-886D-E074568DA671}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F298689-F6E1-44E3-8692-5CF72BD5B3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="21684" windowHeight="13152" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="3225" windowWidth="20025" windowHeight="11835" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="113">
   <si>
     <t>Title</t>
   </si>
@@ -434,7 +435,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -714,21 +715,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView topLeftCell="A43" zoomScale="102" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.47265625" customWidth="1"/>
-    <col min="2" max="2" width="20.62890625" customWidth="1"/>
-    <col min="3" max="3" width="33.734375" customWidth="1"/>
-    <col min="4" max="5" width="13.3671875" customWidth="1"/>
-    <col min="6" max="6" width="25.05078125" customWidth="1"/>
-    <col min="8" max="9" width="25.05078125" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="33.7109375" customWidth="1"/>
+    <col min="4" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="8" max="9" width="25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -754,7 +755,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -777,7 +778,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
@@ -800,7 +801,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>76</v>
       </c>
@@ -820,7 +821,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -840,7 +841,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -860,7 +861,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>73</v>
       </c>
@@ -880,7 +881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>34</v>
       </c>
@@ -900,7 +901,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>78</v>
       </c>
@@ -922,7 +923,7 @@
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
     </row>
-    <row r="10" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>26</v>
       </c>
@@ -942,7 +943,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>39</v>
       </c>
@@ -962,7 +963,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>69</v>
       </c>
@@ -982,7 +983,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>70</v>
       </c>
@@ -1002,7 +1003,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1022,7 +1023,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>74</v>
       </c>
@@ -1042,7 +1043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>32</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>36</v>
       </c>
@@ -1102,7 +1103,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -1122,7 +1123,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -1142,7 +1143,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1162,7 +1163,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1183,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -1202,7 +1203,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>65</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>80</v>
       </c>
@@ -1245,7 +1246,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>83</v>
       </c>
@@ -1265,7 +1266,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>40</v>
       </c>
@@ -1285,7 +1286,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>43</v>
       </c>
@@ -1305,7 +1306,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>56</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1345,7 +1346,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -1365,7 +1366,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>35</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>45</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>82</v>
       </c>
@@ -1425,7 +1426,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>42</v>
       </c>
@@ -1445,7 +1446,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>52</v>
       </c>
@@ -1465,7 +1466,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -1485,7 +1486,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>8</v>
       </c>
@@ -1508,7 +1509,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>91</v>
       </c>
@@ -1525,7 +1526,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>18</v>
       </c>
@@ -1551,7 +1552,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>50</v>
       </c>
@@ -1577,7 +1578,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -1591,7 +1592,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>20</v>
       </c>
@@ -1617,7 +1618,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>29</v>
       </c>
@@ -1643,7 +1644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -1669,7 +1670,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>60</v>
       </c>
@@ -1695,7 +1696,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>79</v>
       </c>
@@ -1721,7 +1722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -1735,7 +1736,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>58</v>
       </c>
@@ -1761,7 +1762,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
@@ -1787,7 +1788,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>24</v>
       </c>
@@ -1813,7 +1814,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>96</v>
       </c>
@@ -1827,7 +1828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>103</v>
       </c>
@@ -1841,7 +1842,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>97</v>
       </c>
@@ -1855,7 +1856,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>99</v>
       </c>
@@ -1869,7 +1870,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>98</v>
       </c>
@@ -1883,7 +1884,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>100</v>
       </c>
@@ -1897,7 +1898,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -1911,7 +1912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>104</v>
       </c>
@@ -1922,7 +1923,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>108</v>
       </c>
@@ -1933,26 +1934,26 @@
         <v>109</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="62" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="63" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="64" spans="1:9" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="65" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="66" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="67" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="68" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="69" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="70" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="71" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="72" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="73" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="74" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="75" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="76" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="77" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="78" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="79" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
-    <row r="80" ht="20.05" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+    <row r="61" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:G80">
     <sortCondition descending="1" ref="D1:D80"/>
@@ -1960,4 +1961,42 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C64667F0-CA42-40DF-81B4-3B3958D3F3D4}">
+  <dimension ref="A1:A4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>